--- a/ontology/SGV/intermediate/Resources.xlsx
+++ b/ontology/SGV/intermediate/Resources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienraemy/switchdrive/PhDigital/PIA/Interoperability model/SGV/Ontologieerzeugung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienraemy/Documents/GitHub/pia-data-model/ontology/SGV/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8257B7D-1F69-FD40-BC6B-0E1D5D0BB241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446DC58A-9F9A-BE46-8C00-D12CC525A56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="7" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="8" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>hasPlace</t>
   </si>
   <si>
-    <t>hasContent</t>
-  </si>
-  <si>
     <t>hasKeywords</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Schema:Place</t>
+  </si>
+  <si>
+    <t>hasRepresentation</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1012,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1264,15 +1264,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -1402,15 +1402,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -1660,15 +1660,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -1895,7 +1895,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
@@ -1953,8 +1953,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
+      <c r="A7" t="s">
+        <v>151</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>4</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>4</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>5</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>4</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>4</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>4</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>4</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>4</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>4</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>5</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>5</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>5</v>
@@ -2091,7 +2091,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>4</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>4</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>4</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>4</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>4</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>5</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>5</v>
@@ -2229,15 +2229,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>4</v>
@@ -2279,7 +2279,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2308,12 +2308,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -2403,7 +2403,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2424,7 +2424,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -2810,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD91F824-1F3E-7E48-A5CC-061BC01D3E73}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>4</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>4</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>4</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>4</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>4</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>4</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>5</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>5</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>5</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>5</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>4</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>5</v>
@@ -2997,7 +2997,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C1:XFD1048576"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3026,7 +3026,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3047,7 +3047,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>

--- a/ontology/SGV/intermediate/Resources.xlsx
+++ b/ontology/SGV/intermediate/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienraemy/Documents/GitHub/pia-data-model/ontology/SGV/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446DC58A-9F9A-BE46-8C00-D12CC525A56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B9D66-C92F-2F4E-8BD7-9290D93C3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="7" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="8" r:id="rId1"/>
@@ -501,7 +501,7 @@
     <t>Schema:Place</t>
   </si>
   <si>
-    <t>hasRepresentation</t>
+    <t>isRepresentationOf</t>
   </si>
 </sst>
 </file>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1895,7 +1895,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2091,7 +2091,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2308,7 +2308,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2810,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD91F824-1F3E-7E48-A5CC-061BC01D3E73}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
